--- a/RUDN/Importance/Varible_muatal_in_Southern Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_in_Southern Asia.xlsx
@@ -31,21 +31,21 @@
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
@@ -67,12 +67,12 @@
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -100,12 +100,12 @@
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
@@ -118,27 +118,27 @@
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
+    <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
     <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -217,12 +217,12 @@
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
     <t>Population, male (% of total)</t>
   </si>
   <si>
@@ -265,12 +265,12 @@
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
     <t>Incidence of tuberculosis (per 100,000 people)</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
     <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
@@ -289,12 +289,12 @@
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
@@ -307,15 +307,15 @@
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 0, male, interpolated</t>
   </si>
   <si>
@@ -346,51 +346,51 @@
     <t>Female population 80+</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
     <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Male population 00-04</t>
   </si>
   <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Time required to start a business, female (days)</t>
   </si>
   <si>
@@ -409,24 +409,24 @@
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
+    <t>Urban population</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, rural (% of rural population with access)</t>
   </si>
   <si>
-    <t>Urban population</t>
-  </si>
-  <si>
     <t>School enrollment, secondary, female (% gross)</t>
   </si>
   <si>
     <t>People using safely managed drinking water services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
@@ -481,6 +481,9 @@
     <t>Male population 55-59</t>
   </si>
   <si>
+    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
@@ -490,42 +493,39 @@
     <t>Population ages 65 and above, male</t>
   </si>
   <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
@@ -544,12 +544,12 @@
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Reported cases of malaria</t>
   </si>
   <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
@@ -601,21 +601,21 @@
     <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
     <t>People using safely managed drinking water services, urban (% of urban population)</t>
   </si>
   <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
     <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
@@ -697,12 +697,12 @@
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Male population 40-44</t>
   </si>
   <si>
@@ -712,15 +712,15 @@
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
     <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
     <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
@@ -742,15 +742,15 @@
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Female population 15-19</t>
   </si>
   <si>
@@ -784,39 +784,39 @@
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
     <t>Expected years of schooling, male</t>
   </si>
   <si>
     <t>Expected years of schooling, female</t>
   </si>
   <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
     <t>CO2 emissions (kt)</t>
   </si>
   <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
     <t>Government expenditure per student, secondary (% of GDP per capita)</t>
   </si>
   <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
     <t>Gross capital formation (% of GDP)</t>
   </si>
   <si>
@@ -832,10 +832,13 @@
     <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
     <t>Employers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Employers, male (% of male employment)</t>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
@@ -844,9 +847,6 @@
     <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
@@ -898,27 +898,27 @@
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
     <t>Children out of school, primary, male</t>
   </si>
   <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
     <t>Forest area (sq. km)</t>
   </si>
   <si>
@@ -928,21 +928,21 @@
     <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
   </si>
   <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
     <t>School enrollment, secondary, male (% net)</t>
   </si>
   <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
+    <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
     <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
@@ -952,12 +952,12 @@
     <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
   </si>
   <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
     <t>People using basic drinking water services (% of population)</t>
   </si>
   <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
   </si>
   <si>
@@ -970,10 +970,13 @@
     <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+    <t>Employment in services, male (% of male employment)</t>
   </si>
   <si>
     <t>Progression to secondary school, female (%)</t>
@@ -982,174 +985,171 @@
     <t>Persistence to last grade of primary, female (% of cohort)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Persistence to last grade of primary, male (% of cohort)</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
     <t>Progression to secondary school, male (%)</t>
   </si>
   <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
     <t>Time-related underemployment, female (% of employment)</t>
   </si>
   <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
     <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
   </si>
   <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
     <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
   </si>
   <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
     <t>Time-related underemployment, male (% of employment)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
     <t>Tuberculosis case detection rate (all forms)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
     <t>Birth rate, crude (per 1,000 people)</t>
   </si>
   <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
+    <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
     <t>Persistence to last grade of primary, total (% of cohort)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
     <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
-    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
   </si>
   <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
     <t>Persistence to grade 5, female (% of cohort)</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
   </si>
   <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
     <t>Public spending on education, total (% of GDP)</t>
   </si>
   <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
     <t>Ratio of young literate females to males (% ages 15-24)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
   </si>
   <si>
@@ -1213,12 +1213,12 @@
     <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
   </si>
   <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
@@ -1315,10 +1315,10 @@
     <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
   <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
     <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
   </si>
   <si>
     <t>Tertiary education, academic staff (% female)</t>
@@ -1929,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.566010945881935</v>
+        <v>1.564529614713104</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1937,7 +1937,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.53091877771376</v>
+        <v>1.534855689016743</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.526879662067502</v>
+        <v>1.530816573370485</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1953,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.512751755930646</v>
+        <v>1.509775565454456</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1969,7 +1969,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.466195503102281</v>
+        <v>1.466618001181436</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1977,7 +1977,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.463641810705245</v>
+        <v>1.465214541003253</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1985,7 +1985,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.458966601122172</v>
+        <v>1.465203439610217</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1993,7 +1993,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.444625408561491</v>
+        <v>1.445424229580289</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2001,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.444601135191018</v>
+        <v>1.444625408561491</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2009,7 +2009,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.422723111129293</v>
+        <v>1.423409924316106</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2025,7 +2025,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.354587211067539</v>
+        <v>1.356571338051666</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.316437177909719</v>
+        <v>1.318873566560421</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2073,7 +2073,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.315897376084231</v>
+        <v>1.316437177909719</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2089,7 +2089,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.30280231067766</v>
+        <v>1.305282469407818</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2137,7 +2137,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.227931496699717</v>
+        <v>1.229362357505578</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2153,7 +2153,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.217681234465673</v>
+        <v>1.214809999675529</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2161,7 +2161,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.215693086496116</v>
+        <v>1.214705043989482</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2177,7 +2177,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1.202460758472003</v>
+        <v>1.200820890403564</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2201,7 +2201,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>1.185238051693348</v>
+        <v>1.184171588220426</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2209,7 +2209,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1.184596758288453</v>
+        <v>1.184115166641892</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2225,7 +2225,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1.157826720244995</v>
+        <v>1.15454550092294</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2233,7 +2233,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1.150851835956954</v>
+        <v>1.146884594736701</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2241,7 +2241,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1.148476743007265</v>
+        <v>1.14378031359564</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2249,7 +2249,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1.14378031359564</v>
+        <v>1.143017361518938</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2265,7 +2265,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1.122205054768937</v>
+        <v>1.118069688735648</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2305,7 +2305,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.090438315884042</v>
+        <v>1.092224030169756</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2313,7 +2313,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.089755371143007</v>
+        <v>1.091541085428721</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2337,7 +2337,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.079498286338221</v>
+        <v>1.080773796542303</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2345,7 +2345,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.078993568086029</v>
+        <v>1.078523643273999</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2353,7 +2353,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.074827664603765</v>
+        <v>1.073552154399683</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2361,7 +2361,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.062808253512448</v>
+        <v>1.054161592331116</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2385,7 +2385,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.033229008217823</v>
+        <v>1.032438883555518</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2401,7 +2401,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.014988601774693</v>
+        <v>1.013366400247167</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2425,7 +2425,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.000589782177259</v>
+        <v>1.000001085159991</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2433,7 +2433,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.9830689294665076</v>
+        <v>0.9890650821263236</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2441,7 +2441,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.9795947601896127</v>
+        <v>0.9815788871737396</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2449,7 +2449,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.9770879914130695</v>
+        <v>0.9776626331162466</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2465,7 +2465,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.9529724848412231</v>
+        <v>0.945447123016661</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2473,7 +2473,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.945447123016661</v>
+        <v>0.9429718743719864</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2529,7 +2529,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.9093170456572541</v>
+        <v>0.9100038588440671</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2553,7 +2553,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.8933763555670153</v>
+        <v>0.8941204031860628</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2569,7 +2569,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.8735656990367193</v>
+        <v>0.8729770020194514</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2593,7 +2593,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.8212287677575736</v>
+        <v>0.828556367781498</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2601,7 +2601,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.8158314869575469</v>
+        <v>0.8212531301935229</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2609,7 +2609,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.8139573472714474</v>
+        <v>0.8182090479517194</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2633,7 +2633,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.7536819515459552</v>
+        <v>0.7531245551620644</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2641,7 +2641,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.7118629980653546</v>
+        <v>0.7195569259056753</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2665,7 +2665,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.6753384788445222</v>
+        <v>0.6758636889285556</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -2673,7 +2673,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.643857764366631</v>
+        <v>0.6434404381069863</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2689,7 +2689,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.620345589218509</v>
+        <v>0.620653470991908</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2705,7 +2705,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.6077085570656016</v>
+        <v>0.6061633318513067</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2713,7 +2713,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.6061633318513067</v>
+        <v>0.5978155288665847</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2721,7 +2721,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5978155288665847</v>
+        <v>0.5934618167027901</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2737,7 +2737,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.5778351574904677</v>
+        <v>0.5781540350414884</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2753,7 +2753,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.5773083651704964</v>
+        <v>0.5760641555997923</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2769,7 +2769,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.5727020748987759</v>
+        <v>0.5714578653280717</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2809,7 +2809,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.5544806569043903</v>
+        <v>0.5535997443386953</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2817,7 +2817,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.5516270853735024</v>
+        <v>0.5529451125843869</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2841,7 +2841,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.5393312579457046</v>
+        <v>0.5382877183619283</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2849,7 +2849,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.5382877183619283</v>
+        <v>0.5376053351622572</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2857,7 +2857,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.5376053351622572</v>
+        <v>0.5349109183314171</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2865,7 +2865,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.5350362946146774</v>
+        <v>0.5345026386669967</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2873,7 +2873,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.5345026386669967</v>
+        <v>0.5341471168885983</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2881,7 +2881,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.5341471168885983</v>
+        <v>0.5304693515490377</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2889,7 +2889,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.5338130367272922</v>
+        <v>0.5299069080910224</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2905,7 +2905,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5299069080910224</v>
+        <v>0.5247738786069283</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2913,7 +2913,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5205808329984749</v>
+        <v>0.5212765314354986</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2921,7 +2921,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.5188087183498702</v>
+        <v>0.5197479811418977</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2929,7 +2929,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.5076946029131868</v>
+        <v>0.5116245270456234</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2977,7 +2977,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.4948522878594073</v>
+        <v>0.4940554361557095</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2985,7 +2985,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.4940554361557095</v>
+        <v>0.4918121012772088</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -3001,7 +3001,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.4846071955861262</v>
+        <v>0.4816310051099357</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3009,7 +3009,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.4766816843388093</v>
+        <v>0.4773557787629037</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -3017,7 +3017,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.47605492501439</v>
+        <v>0.4751902696764483</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3033,7 +3033,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.4712124294329307</v>
+        <v>0.4699364369031904</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3041,7 +3041,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.4591094291106617</v>
+        <v>0.4581628385875764</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3081,7 +3081,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.4452240834592709</v>
+        <v>0.4459681310783186</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4264296711947018</v>
+        <v>0.4268188631915946</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4240970238016806</v>
+        <v>0.4264296711947018</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.4219759741988625</v>
+        <v>0.4240970238016806</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3193,7 +3193,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.4211165296818149</v>
+        <v>0.4219759741988625</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3217,7 +3217,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.4192933502225484</v>
+        <v>0.4175026947264511</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3225,7 +3225,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.4175026947264511</v>
+        <v>0.4167877644526006</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3233,7 +3233,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.4167877644526006</v>
+        <v>0.4166266396878375</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3241,7 +3241,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.4166266396878375</v>
+        <v>0.4133274003428722</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3249,7 +3249,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.4133274003428722</v>
+        <v>0.4119065967040567</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3257,7 +3257,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.4119065967040567</v>
+        <v>0.4106346500529519</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3265,7 +3265,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.4114463383646405</v>
+        <v>0.4104472780295132</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3273,7 +3273,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4104472780295132</v>
+        <v>0.4101861626042826</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3281,7 +3281,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.4101861626042826</v>
+        <v>0.4074524651475131</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3489,7 +3489,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.3873307915007385</v>
+        <v>0.3868107574244719</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.3868107574244719</v>
+        <v>0.3857709831914315</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3505,7 +3505,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.3857709831914315</v>
+        <v>0.3855804256206588</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3855804256206588</v>
+        <v>0.3854331450922026</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3521,7 +3521,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.3854331450922026</v>
+        <v>0.384354601024548</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.3848768091660781</v>
+        <v>0.3839302186429929</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3745,7 +3745,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3559005692977841</v>
+        <v>0.3561274203848248</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3753,7 +3753,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3553833727657771</v>
+        <v>0.3559005692977841</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3785,7 +3785,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3494604137592157</v>
+        <v>0.3495544080493038</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3793,7 +3793,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3481063646138918</v>
+        <v>0.3477452390529696</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3801,7 +3801,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3475702810651768</v>
+        <v>0.3453740598050927</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3865,7 +3865,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3387208807117688</v>
+        <v>0.3388124851524776</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3873,7 +3873,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.3371453234303601</v>
+        <v>0.3387208807117688</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3881,7 +3881,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.3368283581683507</v>
+        <v>0.3371453234303601</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3897,7 +3897,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.3349691152591299</v>
+        <v>0.335349054468856</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3905,7 +3905,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3317359696724209</v>
+        <v>0.3307893791493359</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.3173750116416449</v>
+        <v>0.3152878131258749</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3150837723345934</v>
+        <v>0.3129965738188236</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.3105343955324644</v>
+        <v>0.3084471970166944</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.3042675689578009</v>
+        <v>0.3038349340169484</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2977209621721262</v>
+        <v>0.2992189794849669</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2973305704705276</v>
+        <v>0.2977209621721262</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4001,7 +4001,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2930524048376801</v>
+        <v>0.2960285953138706</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4009,7 +4009,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2920739151207796</v>
+        <v>0.2943543799943369</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4017,7 +4017,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2918719531772365</v>
+        <v>0.2935041989888287</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -4025,7 +4025,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2912298250851126</v>
+        <v>0.2919248123702738</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4033,7 +4033,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2891492459966127</v>
+        <v>0.2914599761942558</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4041,7 +4041,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2874055463873837</v>
+        <v>0.2871196500826785</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4049,7 +4049,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2871246230182956</v>
+        <v>0.2864169411878135</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4057,7 +4057,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2871196500826785</v>
+        <v>0.2841484325421051</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2803246512854165</v>
+        <v>0.2798420258027909</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4081,7 +4081,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2753919690821167</v>
+        <v>0.2724157786059263</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4089,7 +4089,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2700936048046578</v>
+        <v>0.2720777317887848</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4097,7 +4097,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.267641700585483</v>
+        <v>0.2649093957766835</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4121,7 +4121,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2606217612089494</v>
+        <v>0.2566627735377958</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4129,7 +4129,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.2574704558481802</v>
+        <v>0.2559038523429773</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4137,7 +4137,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2566627735377958</v>
+        <v>0.2536785699037187</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4153,7 +4153,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.240966731141617</v>
+        <v>0.2417107787606647</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4161,7 +4161,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2382383125690704</v>
+        <v>0.238982360188118</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4169,7 +4169,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2372984629450106</v>
+        <v>0.2380425105640582</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4185,7 +4185,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2306262153692853</v>
+        <v>0.2320570761751459</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4201,7 +4201,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2243272501490579</v>
+        <v>0.2250712977681055</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4209,7 +4209,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2235329539375637</v>
+        <v>0.2249638147434245</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4217,7 +4217,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2219265222296845</v>
+        <v>0.2226705698487321</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4225,7 +4225,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.2207983813942778</v>
+        <v>0.2222292422001386</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4233,7 +4233,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2181549149025426</v>
+        <v>0.2188989625215902</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2170283417499725</v>
+        <v>0.2177723893690202</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4257,7 +4257,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2093813727709801</v>
+        <v>0.2101254203900278</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2032686791826481</v>
+        <v>0.2030293754173502</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2018856698783322</v>
+        <v>0.2010340446106278</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2010340446106278</v>
+        <v>0.1970059930504604</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.1955751322445995</v>
+        <v>0.1963034890234749</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.1948726282176143</v>
+        <v>0.1947668157975797</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.1947668157975797</v>
+        <v>0.1918710756417796</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.1918710756417796</v>
+        <v>0.1914674240794594</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.1888944557892751</v>
+        <v>0.1912255746824534</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.1880225307418202</v>
+        <v>0.189453391547681</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.1870584497487633</v>
+        <v>0.1884893105546239</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.1864697314920067</v>
+        <v>0.1878145920271366</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.1863837312212759</v>
+        <v>0.1864697314920067</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.1836034244242248</v>
+        <v>0.1822250150565892</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.1814809674375415</v>
+        <v>0.1808711196154256</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4401,7 +4401,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.1786576506758462</v>
+        <v>0.1794016982948938</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4409,7 +4409,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.1778563176351302</v>
+        <v>0.1792871784409908</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4417,7 +4417,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.1751951007169521</v>
+        <v>0.176625961522813</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4425,7 +4425,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.174165262064476</v>
+        <v>0.1723715182340808</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4433,7 +4433,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.1723715182340808</v>
+        <v>0.1714329572556768</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4441,7 +4441,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.169874278667985</v>
+        <v>0.1713051394738456</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4449,7 +4449,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.1687039816354849</v>
+        <v>0.1692430821255873</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4457,7 +4457,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1658724864562486</v>
+        <v>0.1653707064901826</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4473,7 +4473,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.1620900422097578</v>
+        <v>0.1625725721710809</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4481,7 +4481,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1611417113652203</v>
+        <v>0.1620900422097578</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4489,7 +4489,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1602385156112764</v>
+        <v>0.1546584803438396</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4497,7 +4497,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1582063923138954</v>
+        <v>0.1542861346588957</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4505,7 +4505,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.1566810045215765</v>
+        <v>0.1522540113615143</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4513,7 +4513,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.1545847016615878</v>
+        <v>0.1507957116987038</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4521,7 +4521,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.1532276195379787</v>
+        <v>0.1507286235691954</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4529,7 +4529,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1528676244064338</v>
+        <v>0.1486642587779958</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4537,7 +4537,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1486642587779958</v>
+        <v>0.1486323207092071</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4545,7 +4545,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.1474804336657242</v>
+        <v>0.1476069989332565</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4609,7 +4609,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.1461761381273958</v>
+        <v>0.1474804336657242</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4617,7 +4617,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.142936825802318</v>
+        <v>0.1437629313044095</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4625,7 +4625,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.1363371231228661</v>
+        <v>0.1375464184864392</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4633,7 +4633,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.1359032206334523</v>
+        <v>0.1374531945514381</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1355852732367393</v>
+        <v>0.136329320855787</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1350837383334897</v>
+        <v>0.1351473071777531</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.1346768195837351</v>
+        <v>0.1348836888652711</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1343835236051387</v>
+        <v>0.1346768195837351</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.1341385089254268</v>
+        <v>0.1332611045860557</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.1334528280594103</v>
+        <v>0.1330324915640355</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.1330324915640355</v>
+        <v>0.1324367165679514</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4697,7 +4697,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.1324367165679514</v>
+        <v>0.1323514335246905</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4705,7 +4705,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.1314650436970821</v>
+        <v>0.1284888532208917</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4713,7 +4713,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1262346032125785</v>
+        <v>0.1281861279730461</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1255676866566531</v>
+        <v>0.1263117342757007</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1255676866566531</v>
+        <v>0.1263117342757007</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1250603606305767</v>
+        <v>0.1256976510115264</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1242667902056656</v>
+        <v>0.1256976510115264</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.1242667902056656</v>
+        <v>0.1252880126894935</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4761,7 +4761,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1232974076317359</v>
+        <v>0.1223937954375227</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.1223937954375227</v>
+        <v>0.1201086321215321</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4777,7 +4777,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1161936854053476</v>
+        <v>0.1150428061461102</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4785,7 +4785,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1142953574189627</v>
+        <v>0.1105340603255001</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1107546436029254</v>
+        <v>0.10876762852037</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.1105340603255001</v>
+        <v>0.1083429764665815</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.10876762852037</v>
+        <v>0.1076263509972242</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.1084878179324273</v>
+        <v>0.1060218315378694</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1069560210280014</v>
+        <v>0.1048022626505445</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1068823033781765</v>
+        <v>0.1046541712750935</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.1046541712750935</v>
+        <v>0.1044593186317699</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1030372508073865</v>
+        <v>0.1030695945445887</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.101147826973635</v>
+        <v>0.1030372508073865</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.09400470580224218</v>
+        <v>0.09431028818939535</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.09356624057034768</v>
+        <v>0.09400470580224218</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5177,7 +5177,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.08981141520591307</v>
+        <v>0.08886482468282786</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5201,7 +5201,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.08760145687033671</v>
+        <v>0.08648718916838249</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5217,7 +5217,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.07584052384173079</v>
+        <v>0.07313453860259456</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5225,7 +5225,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.07083724594759966</v>
+        <v>0.0721211802672479</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5233,7 +5233,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.06731861510873349</v>
+        <v>0.06458631029993378</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5241,7 +5241,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.06716555611684827</v>
+        <v>0.064433251308049</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5249,7 +5249,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.06365824133352205</v>
+        <v>0.06353423339701414</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5313,7 +5313,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.05433581373923779</v>
+        <v>0.05561974805888648</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5329,7 +5329,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.05166348453752656</v>
+        <v>0.05294741885717547</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5393,7 +5393,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.04662602861418996</v>
+        <v>0.04734674087103463</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5401,7 +5401,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.04571985070166229</v>
+        <v>0.04662602861418996</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -6001,7 +6001,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>0.02335721238880928</v>
+        <v>0.02089122599425131</v>
       </c>
     </row>
     <row r="512" spans="1:2">
@@ -6009,7 +6009,7 @@
         <v>510</v>
       </c>
       <c r="B512">
-        <v>0.02141477721024909</v>
+        <v>0.02057216743906887</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -6017,7 +6017,7 @@
         <v>511</v>
       </c>
       <c r="B513">
-        <v>0.01658370049384361</v>
+        <v>0.01786763481349207</v>
       </c>
     </row>
     <row r="514" spans="1:2">
